--- a/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,09</t>
+          <t>-20,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,48</t>
+          <t>-16,83</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 7,66</t>
+          <t>-34,98; 10,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,25; -0,62</t>
+          <t>-38,34; 1,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -2,29</t>
+          <t>-32,13; -1,71</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>-37,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,94%</t>
+          <t>-37,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,71%</t>
+          <t>-38,41%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 36,91</t>
+          <t>-79,95; 68,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -0,16</t>
+          <t>-61,05; 5,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -6,03</t>
+          <t>-61,96; -4,06</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-6,38</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 17,62</t>
+          <t>-33,96; 34,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 8,5</t>
+          <t>-26,77; 8,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 8,05</t>
+          <t>-23,1; 14,31</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,53%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,18%</t>
+          <t>-20,96%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 154,25</t>
+          <t>-87,5; 260,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 33,83</t>
+          <t>-61,28; 37,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 38,95</t>
+          <t>-61,0; 75,62</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 22,6</t>
+          <t>-16,37; 13,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,97</t>
+          <t>-1,92; 22,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 13,17</t>
+          <t>-5,04; 16,27</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>23,09%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 153,14</t>
+          <t>-55,65; 95,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 71,23</t>
+          <t>-4,99; 100,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 63,37</t>
+          <t>-16,5; 75,35</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>5,36</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 11,65</t>
+          <t>-3,91; 21,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 11,31</t>
+          <t>-7,1; 15,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 8,25</t>
+          <t>-3,38; 13,45</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 89,79</t>
+          <t>-22,32; 228,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 61,99</t>
+          <t>-26,65; 108,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 44,93</t>
+          <t>-15,23; 98,68</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 8,7</t>
+          <t>-14,66; 11,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 11,95</t>
+          <t>-16,11; 16,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 7,53</t>
+          <t>-10,88; 9,23</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 72,04</t>
+          <t>-57,21; 93,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 67,17</t>
+          <t>-58,53; 136,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 45,67</t>
+          <t>-44,77; 64,69</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 5,15</t>
+          <t>-25,24; 4,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 25,8</t>
+          <t>-7,31; 27,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 14,0</t>
+          <t>-11,74; 13,86</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>-52,9%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 55,0</t>
+          <t>-100,0; 142,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 158,71</t>
+          <t>-32,39; 209,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 94,24</t>
+          <t>-46,59; 119,49</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,58</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,97</t>
+          <t>-9,74; 7,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,43</t>
+          <t>-6,33; 6,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,91</t>
+          <t>-5,51; 5,11</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 28,15</t>
+          <t>-38,55; 44,22</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 20,46</t>
+          <t>-19,37; 25,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 12,19</t>
+          <t>-19,45; 23,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-20,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-16,83</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.52186718748003</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-16.80766858605876</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-15.01722131111574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-34,98; 10,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-38,34; 1,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-32,13; -1,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-35.23287797082731</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-35.62610168881444</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-31.50838279780834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-37,38%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-37,98%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-38,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.829609821563006</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.863307824831607</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5521770591401771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-79,95; 68,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-61,05; 5,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-61,96; -4,06</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.3950458607404559</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.3191016550434575</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.3428279449420887</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.8045373056077836</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.5839807641540076</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5970340578608686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-33,96; 34,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-26,77; 8,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,1; 14,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.605107866819408</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1568213503050651</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04933396728422119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,16%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-28,08%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-20,96%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.423748588849624</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.065092949094898</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.825459115861845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-87,5; 260,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-61,28; 37,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-61,0; 75,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-35.80971072657126</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-24.05206207518236</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.39719502625936</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.11865700455225</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.46524979914685</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.92888942834971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,37; 13,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 22,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 16,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1646804958819361</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.2072041684088957</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1914205825998436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-9,65%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>38,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.90977553769856</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.5753127005895723</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.5878159843207741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-55,65; 95,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 100,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 75,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.948833276872546</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6012938593902354</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6805701303857449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,36</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.9051543292031311</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>11.07316855028597</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.452354941627486</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 21,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 15,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 13,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.35058384700536</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.57065429102176</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.756887681068588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>48,57%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>29,04%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.68447014144751</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.81198061115417</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>16.724545980887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 228,44</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-26,65; 108,04</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-15,23; 98,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.04023421526626199</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.3803323858380934</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.243385636081656</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.541843226804555</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.03926562586421574</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1578615157921652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 11,84</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 16,26</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 9,23</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.160372508805812</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.008267097944006</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7840722050084498</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-5,57%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-2,54%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-4,26%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>8.137596449442716</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.124356207643906</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.98079717385033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-57,21; 93,36</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-58,53; 136,33</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-44,77; 64,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.719230809900857</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.60410642269048</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.619094095388406</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-8,19</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8,72</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>21.10565613534278</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>16.90161082443682</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.64118898615902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-25,24; 4,43</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 27,56</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 13,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.5280432034582861</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.195860606327142</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.324066012338015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-52,9%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>40,62%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1871606296105823</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2666813115279948</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1365750414472622</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 142,9</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 209,37</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-46,59; 119,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.363344563544129</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.138327486040633</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.042306810132935</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-1.21564100030904</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.4769508871002415</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.904558226242036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 7,42</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 6,68</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 5,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-14.40947012622262</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-16.0634403000647</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-10.76453199506506</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-8,81%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>11.39117253902917</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.13141353030175</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9.068396834143375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-38,55; 44,22</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; 25,87</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; 23,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.06361734048377224</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.02405584723899239</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.04659004757721764</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.57918970887416</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.5904602108146707</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.4442626686597629</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.908906057394022</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1.367089956418395</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.6405595811614102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-8.914711499526634</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>8.815096436362435</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.3999506239234535</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-25.48101756515987</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-7.242778376146283</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-12.78148192812362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>3.612391512039035</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>27.79606934779274</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>13.06479075727351</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.5755646591190064</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.410812146966509</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.0213567441903399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3209702597341683</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.4957319640739217</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>1.269406595016975</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>2.12445126179261</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.142402927420386</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.850165981861082</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>1.525601479159711</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.07383674587866373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-9.76192744151702</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-5.797142456072256</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.090894250947999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>6.680421063242088</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>7.676355142776085</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.514659536396731</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.08668864338801426</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.05216873197039717</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.002887905101925622</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.3879965417707508</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1769800725667523</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1753966878196445</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.3824511312448275</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.3007574099883566</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.2451860370953001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
